--- a/target/classes/examples/固氮植物.xlsx
+++ b/target/classes/examples/固氮植物.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_C19BF805ACD6F1B42D0568AEDD6589412EE27E87" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{871CB47D-A34F-4EE9-B43E-82D8C1CE4CD4}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_C19BF805ACD6F1B42D0568AEDD6589412EE27E87" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5C74678F-5629-442D-BD73-4445844AACCF}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,23 +17,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>固氮植物种类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>植物面积</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大豆</t>
-  </si>
-  <si>
     <t>1705010000</t>
-  </si>
-  <si>
-    <t>花生</t>
   </si>
   <si>
     <t>1705020000</t>
@@ -501,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
@@ -512,114 +502,107 @@
     <col min="1" max="1" width="8.83984375" style="1"/>
     <col min="2" max="2" width="16.89453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.62890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.3671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="1"/>
+    <col min="4" max="4" width="21.3671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2018</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>24262.75239476165</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>24262.75239476165</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>2018</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>684.9602354306644</v>
       </c>
       <c r="E3" s="1">
-        <v>684.9602354306644</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -643,9 +626,6 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
         <v>0</v>
       </c>
     </row>

--- a/target/classes/examples/固氮植物.xlsx
+++ b/target/classes/examples/固氮植物.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_C19BF805ACD6F1B42D0568AEDD6589412EE27E87" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5C74678F-5629-442D-BD73-4445844AACCF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F4F17-8020-4578-84F7-6EFA54E98444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="1035" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,18 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>植物面积</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1705010000</t>
-  </si>
-  <si>
-    <t>1705020000</t>
-  </si>
-  <si>
     <t>SCC编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -75,12 +69,6 @@
   <si>
     <t>BC排放量</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>652122</t>
-  </si>
-  <si>
-    <t>650121</t>
   </si>
 </sst>
 </file>
@@ -494,68 +482,68 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="1"/>
-    <col min="2" max="2" width="16.89453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.62890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1702016011</v>
       </c>
       <c r="B2" s="1">
         <v>2018</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
+      <c r="C2" s="1">
+        <v>210101</v>
       </c>
       <c r="D2" s="1">
         <v>24262.75239476165</v>
@@ -588,15 +576,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1702016011</v>
       </c>
       <c r="B3" s="1">
         <v>2018</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
+      <c r="C3" s="1">
+        <v>210102</v>
       </c>
       <c r="D3" s="1">
         <v>684.9602354306644</v>
@@ -632,6 +620,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -641,7 +630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -654,7 +643,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
